--- a/app/src/main/resources/files/Credentials_DemoAccount_2024-04-13.xlsx
+++ b/app/src/main/resources/files/Credentials_DemoAccount_2024-04-13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Class</t>
   </si>
@@ -24,262 +24,250 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Deborah63_Moore34</t>
-  </si>
-  <si>
-    <t>qwert1159</t>
-  </si>
-  <si>
-    <t>Mary94_Hernandez27</t>
-  </si>
-  <si>
-    <t>qwert1502</t>
-  </si>
-  <si>
-    <t>Deborah67_Nguyen81</t>
-  </si>
-  <si>
-    <t>qwert3759</t>
-  </si>
-  <si>
-    <t>Anthony66_Ramirez48</t>
-  </si>
-  <si>
-    <t>qwert3104</t>
-  </si>
-  <si>
-    <t>Lisa49_Mitchell79</t>
-  </si>
-  <si>
-    <t>qwert4074</t>
-  </si>
-  <si>
-    <t>Sandra49_Jackson25</t>
-  </si>
-  <si>
-    <t>qwert6555</t>
-  </si>
-  <si>
-    <t>Linda78_White45</t>
-  </si>
-  <si>
-    <t>qwert5074</t>
-  </si>
-  <si>
-    <t>Ashley45_Campbell23</t>
-  </si>
-  <si>
-    <t>qwert8800</t>
-  </si>
-  <si>
-    <t>Jessica56_Gonzalez61</t>
-  </si>
-  <si>
-    <t>qwert5044</t>
-  </si>
-  <si>
-    <t>Sandra67_Scott23</t>
-  </si>
-  <si>
-    <t>qwert5471</t>
-  </si>
-  <si>
-    <t>Thomas20_Ramirez50</t>
-  </si>
-  <si>
-    <t>qwert1204</t>
-  </si>
-  <si>
-    <t>Kimberly17_Wilson94</t>
-  </si>
-  <si>
-    <t>qwert8473</t>
-  </si>
-  <si>
-    <t>Jennifer59_Lopez13</t>
-  </si>
-  <si>
-    <t>qwert3996</t>
-  </si>
-  <si>
-    <t>Lisa77_Jackson22</t>
-  </si>
-  <si>
-    <t>qwert9450</t>
-  </si>
-  <si>
-    <t>Jennifer80_Baker23</t>
-  </si>
-  <si>
-    <t>qwert9844</t>
-  </si>
-  <si>
-    <t>Matthew45_Davis96</t>
-  </si>
-  <si>
-    <t>qwert4036</t>
-  </si>
-  <si>
-    <t>Amanda14_Lee30</t>
-  </si>
-  <si>
-    <t>qwert1392</t>
-  </si>
-  <si>
-    <t>David89_Lopez78</t>
-  </si>
-  <si>
-    <t>qwert7991</t>
-  </si>
-  <si>
-    <t>Paul26_Anderson53</t>
-  </si>
-  <si>
-    <t>qwert4506</t>
-  </si>
-  <si>
-    <t>Donna62_Moore56</t>
-  </si>
-  <si>
-    <t>qwert3089</t>
-  </si>
-  <si>
-    <t>Karen22_Martin53</t>
-  </si>
-  <si>
-    <t>qwert2062</t>
-  </si>
-  <si>
-    <t>Charles52_Robinson11</t>
-  </si>
-  <si>
-    <t>qwert8036</t>
-  </si>
-  <si>
-    <t>Daniel29_Martin24</t>
-  </si>
-  <si>
-    <t>qwert3300</t>
-  </si>
-  <si>
-    <t>Mary37_Clark31</t>
-  </si>
-  <si>
-    <t>qwert1299</t>
-  </si>
-  <si>
-    <t>Christopher71_Torres71</t>
-  </si>
-  <si>
-    <t>qwert2846</t>
-  </si>
-  <si>
-    <t>Melissa29_Sanchez11</t>
-  </si>
-  <si>
-    <t>qwert7293</t>
-  </si>
-  <si>
-    <t>Linda64_Adams48</t>
-  </si>
-  <si>
-    <t>qwert7183</t>
-  </si>
-  <si>
-    <t>Robert99_Rivera99</t>
-  </si>
-  <si>
-    <t>qwert2050</t>
-  </si>
-  <si>
-    <t>Carol60_Roberts11</t>
-  </si>
-  <si>
-    <t>qwert3741</t>
-  </si>
-  <si>
-    <t>Matthew49_Harris55</t>
-  </si>
-  <si>
-    <t>qwert8884</t>
-  </si>
-  <si>
-    <t>Donald21_Mitchell29</t>
-  </si>
-  <si>
-    <t>qwert9081</t>
-  </si>
-  <si>
-    <t>Robert19_Wright96</t>
-  </si>
-  <si>
-    <t>qwert7025</t>
-  </si>
-  <si>
-    <t>Anthony35_Moore83</t>
-  </si>
-  <si>
-    <t>qwert1829</t>
-  </si>
-  <si>
-    <t>Daniel17_Brown13</t>
-  </si>
-  <si>
-    <t>qwert2465</t>
-  </si>
-  <si>
-    <t>Charles62_Martin75</t>
-  </si>
-  <si>
-    <t>qwert2268</t>
-  </si>
-  <si>
-    <t>Matthew99_Ramirez17</t>
-  </si>
-  <si>
-    <t>qwert5901</t>
-  </si>
-  <si>
-    <t>Emily20_Anderson84</t>
-  </si>
-  <si>
-    <t>qwert5601</t>
-  </si>
-  <si>
-    <t>Deborah72_Ramirez36</t>
-  </si>
-  <si>
-    <t>qwert7130</t>
-  </si>
-  <si>
-    <t>Sarah38_Flores94</t>
-  </si>
-  <si>
-    <t>qwert3070</t>
-  </si>
-  <si>
-    <t>William15_King86</t>
-  </si>
-  <si>
-    <t>qwert8486</t>
-  </si>
-  <si>
-    <t>Sarah16_Clark53</t>
-  </si>
-  <si>
-    <t>qwert8725</t>
-  </si>
-  <si>
-    <t>Kimberly64_Williams27</t>
-  </si>
-  <si>
-    <t>qwert5688</t>
-  </si>
-  <si>
-    <t>NewTeacherAutotest574277833</t>
-  </si>
-  <si>
-    <t>12345qwert8517</t>
+    <t>Patricia25_Scott87</t>
+  </si>
+  <si>
+    <t>qwert1647</t>
+  </si>
+  <si>
+    <t>Robert12_Lewis82</t>
+  </si>
+  <si>
+    <t>qwert8379</t>
+  </si>
+  <si>
+    <t>Andrew63_Campbell84</t>
+  </si>
+  <si>
+    <t>qwert3482</t>
+  </si>
+  <si>
+    <t>Charles37_Adams68</t>
+  </si>
+  <si>
+    <t>qwert2126</t>
+  </si>
+  <si>
+    <t>Patricia63_Moore43</t>
+  </si>
+  <si>
+    <t>qwert5403</t>
+  </si>
+  <si>
+    <t>Donald15_Lopez43</t>
+  </si>
+  <si>
+    <t>qwert2908</t>
+  </si>
+  <si>
+    <t>Kimberly42_Robinson19</t>
+  </si>
+  <si>
+    <t>qwert9905</t>
+  </si>
+  <si>
+    <t>Brian38_Flores51</t>
+  </si>
+  <si>
+    <t>qwert9883</t>
+  </si>
+  <si>
+    <t>Nancy10_Carter97</t>
+  </si>
+  <si>
+    <t>qwert8143</t>
+  </si>
+  <si>
+    <t>Elizabeth38_Lee71</t>
+  </si>
+  <si>
+    <t>qwert4797</t>
+  </si>
+  <si>
+    <t>Margaret70_Walker88</t>
+  </si>
+  <si>
+    <t>qwert7023</t>
+  </si>
+  <si>
+    <t>Matthew66_Green71</t>
+  </si>
+  <si>
+    <t>qwert9518</t>
+  </si>
+  <si>
+    <t>Charles67_Lee61</t>
+  </si>
+  <si>
+    <t>qwert8144</t>
+  </si>
+  <si>
+    <t>David76_Williams18</t>
+  </si>
+  <si>
+    <t>qwert3475</t>
+  </si>
+  <si>
+    <t>Jessica37_Lee36</t>
+  </si>
+  <si>
+    <t>qwert2642</t>
+  </si>
+  <si>
+    <t>Deborah51_White98</t>
+  </si>
+  <si>
+    <t>qwert1923</t>
+  </si>
+  <si>
+    <t>Margaret38_Hernandez63</t>
+  </si>
+  <si>
+    <t>qwert3018</t>
+  </si>
+  <si>
+    <t>Karen38_Nguyen26</t>
+  </si>
+  <si>
+    <t>qwert2839</t>
+  </si>
+  <si>
+    <t>Christopher31_Rodriguez45</t>
+  </si>
+  <si>
+    <t>qwert5041</t>
+  </si>
+  <si>
+    <t>Michelle70_Robinson99</t>
+  </si>
+  <si>
+    <t>qwert3057</t>
+  </si>
+  <si>
+    <t>Sandra89_Hall21</t>
+  </si>
+  <si>
+    <t>qwert7110</t>
+  </si>
+  <si>
+    <t>James24_Wilson79</t>
+  </si>
+  <si>
+    <t>qwert1912</t>
+  </si>
+  <si>
+    <t>Steven61_Hall82</t>
+  </si>
+  <si>
+    <t>qwert3107</t>
+  </si>
+  <si>
+    <t>Amanda49_Perez99</t>
+  </si>
+  <si>
+    <t>qwert2162</t>
+  </si>
+  <si>
+    <t>Carol95_Ramirez77</t>
+  </si>
+  <si>
+    <t>qwert5313</t>
+  </si>
+  <si>
+    <t>Carol40_King25</t>
+  </si>
+  <si>
+    <t>qwert6451</t>
+  </si>
+  <si>
+    <t>Anthony20_Lopez87</t>
+  </si>
+  <si>
+    <t>qwert8844</t>
+  </si>
+  <si>
+    <t>Melissa49_Sanchez60</t>
+  </si>
+  <si>
+    <t>qwert8561</t>
+  </si>
+  <si>
+    <t>Mary81_Hill55</t>
+  </si>
+  <si>
+    <t>qwert4315</t>
+  </si>
+  <si>
+    <t>Lisa78_Martinez67</t>
+  </si>
+  <si>
+    <t>qwert7199</t>
+  </si>
+  <si>
+    <t>Robert14_Adams78</t>
+  </si>
+  <si>
+    <t>qwert2551</t>
+  </si>
+  <si>
+    <t>Andrew17_Walker61</t>
+  </si>
+  <si>
+    <t>qwert6915</t>
+  </si>
+  <si>
+    <t>Matthew31_Davis52</t>
+  </si>
+  <si>
+    <t>qwert6242</t>
+  </si>
+  <si>
+    <t>Emily48_Rivera32</t>
+  </si>
+  <si>
+    <t>qwert3134</t>
+  </si>
+  <si>
+    <t>Michael19_Johnson30</t>
+  </si>
+  <si>
+    <t>qwert5100</t>
+  </si>
+  <si>
+    <t>Michelle61_Roberts61</t>
+  </si>
+  <si>
+    <t>qwert4394</t>
+  </si>
+  <si>
+    <t>David29_Johnson88</t>
+  </si>
+  <si>
+    <t>qwert5251</t>
+  </si>
+  <si>
+    <t>William11_Williams23</t>
+  </si>
+  <si>
+    <t>qwert5694</t>
+  </si>
+  <si>
+    <t>Christopher88_Martin60</t>
+  </si>
+  <si>
+    <t>qwert7150</t>
+  </si>
+  <si>
+    <t>Paul61_Rodriguez36</t>
+  </si>
+  <si>
+    <t>qwert8339</t>
+  </si>
+  <si>
+    <t>NewTeacherAutotest947094278</t>
+  </si>
+  <si>
+    <t>12345qwert6301</t>
   </si>
 </sst>
 </file>
@@ -324,14 +312,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="5.72265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -469,7 +457,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>25</v>
@@ -480,7 +468,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>27</v>
@@ -491,7 +479,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>29</v>
@@ -634,7 +622,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>55</v>
@@ -645,7 +633,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>57</v>
@@ -784,28 +772,6 @@
       </c>
       <c r="C41" t="s" s="0">
         <v>82</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
